--- a/data/trans_orig/P62-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42813</v>
+        <v>43210</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62722</v>
+        <v>63159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4905161691045049</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3978462245137256</v>
+        <v>0.4015324833840243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5828548635117244</v>
+        <v>0.5869101894633406</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -765,19 +765,19 @@
         <v>36586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26812</v>
+        <v>27569</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46894</v>
+        <v>49077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2457848281111006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1801194868703966</v>
+        <v>0.1852074378192346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3150352165259696</v>
+        <v>0.3296973745922452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -786,19 +786,19 @@
         <v>89371</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74299</v>
+        <v>74443</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105594</v>
+        <v>105575</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3484728422029544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2897042714322111</v>
+        <v>0.290266193796078</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4117265995617179</v>
+        <v>0.411653712926146</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>54827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44890</v>
+        <v>44453</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64799</v>
+        <v>64402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5094838308954951</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4171451364882756</v>
+        <v>0.4130898105366594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6021537754862746</v>
+        <v>0.5984675166159756</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -836,19 +836,19 @@
         <v>112268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101960</v>
+        <v>99777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>122042</v>
+        <v>121285</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7542151718888994</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6849647834740304</v>
+        <v>0.6703026254077548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8198805131296033</v>
+        <v>0.8147925621807653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -857,19 +857,19 @@
         <v>167095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150872</v>
+        <v>150891</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182167</v>
+        <v>182023</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6515271577970456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5882734004382819</v>
+        <v>0.5883462870738541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7102957285677889</v>
+        <v>0.709733806203922</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>123693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108523</v>
+        <v>108602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139513</v>
+        <v>138646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5556892285857852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4875369732040885</v>
+        <v>0.4878906712551232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6267599481181194</v>
+        <v>0.6228661559809326</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -982,19 +982,19 @@
         <v>80182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65209</v>
+        <v>66118</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96936</v>
+        <v>97720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2171110473795609</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1765671659803118</v>
+        <v>0.1790280362398148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2624754451480669</v>
+        <v>0.2645971807574367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -1003,19 +1003,19 @@
         <v>203875</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>181086</v>
+        <v>182069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225682</v>
+        <v>227126</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3444370985949006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3059350287996382</v>
+        <v>0.3075962274827181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3812783337593438</v>
+        <v>0.3837179691889553</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>98901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>83081</v>
+        <v>83948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114071</v>
+        <v>113992</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4443107714142148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3732400518818806</v>
+        <v>0.3771338440190674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5124630267959118</v>
+        <v>0.5121093287448768</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>288</v>
@@ -1053,19 +1053,19 @@
         <v>289133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272379</v>
+        <v>271595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>304106</v>
+        <v>303197</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7828889526204391</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7375245548519334</v>
+        <v>0.7354028192425632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8234328340196884</v>
+        <v>0.8209719637601851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>384</v>
@@ -1074,19 +1074,19 @@
         <v>388034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>366227</v>
+        <v>364783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>410823</v>
+        <v>409840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6555629014050994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6187216662406562</v>
+        <v>0.6162820308110447</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6940649712003618</v>
+        <v>0.6924037725172818</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>75765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63864</v>
+        <v>64476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86669</v>
+        <v>88287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5292929989286828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4461521829890877</v>
+        <v>0.4504313544552098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6054679757809021</v>
+        <v>0.6167737011718798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1199,19 +1199,19 @@
         <v>66464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52374</v>
+        <v>53202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79530</v>
+        <v>81448</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2759619052521047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.21745756755433</v>
+        <v>0.2208949316803734</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3302123425609093</v>
+        <v>0.3381758951416498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -1220,19 +1220,19 @@
         <v>142228</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123579</v>
+        <v>124681</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161758</v>
+        <v>161899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3703982867266035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3218307464957745</v>
+        <v>0.3247005435487996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4212571820047651</v>
+        <v>0.4216243965554879</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>67378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56474</v>
+        <v>54856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79279</v>
+        <v>78667</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4707070010713173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3945320242190979</v>
+        <v>0.38322629882812</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5538478170109126</v>
+        <v>0.54956864554479</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>175</v>
@@ -1270,19 +1270,19 @@
         <v>174382</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161316</v>
+        <v>159398</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>188472</v>
+        <v>187644</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7240380947478953</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6697876574390911</v>
+        <v>0.6618241048583504</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7825424324456699</v>
+        <v>0.7791050683196267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>240</v>
@@ -1291,19 +1291,19 @@
         <v>241760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>222230</v>
+        <v>222089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>260409</v>
+        <v>259307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6296017132733965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5787428179952349</v>
+        <v>0.578375603444512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6781692535042255</v>
+        <v>0.6752994564512003</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>69987</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59380</v>
+        <v>60004</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80623</v>
+        <v>81351</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5217255327549684</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4426584693501763</v>
+        <v>0.447307811508272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.601012830416772</v>
+        <v>0.6064443538077713</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1416,19 +1416,19 @@
         <v>64844</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52623</v>
+        <v>50665</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79668</v>
+        <v>79201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2754960483445926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2235751098814805</v>
+        <v>0.2152554592773185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3384788195239654</v>
+        <v>0.3364925186195438</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -1437,19 +1437,19 @@
         <v>134830</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117529</v>
+        <v>118051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151836</v>
+        <v>154919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3648842819100375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3180636609803746</v>
+        <v>0.3194760799847918</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.410907300487105</v>
+        <v>0.4192489298446265</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>64158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53522</v>
+        <v>52794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74765</v>
+        <v>74141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4782744672450317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.398987169583228</v>
+        <v>0.3935556461922287</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5573415306498237</v>
+        <v>0.5526921884917281</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -1487,19 +1487,19 @@
         <v>170527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155703</v>
+        <v>156170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>182748</v>
+        <v>184706</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7245039516554074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6615211804760346</v>
+        <v>0.6635074813804561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7764248901185195</v>
+        <v>0.7847445407226812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>247</v>
@@ -1508,19 +1508,19 @@
         <v>234685</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>217679</v>
+        <v>214596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>251986</v>
+        <v>251464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6351157180899625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.589092699512895</v>
+        <v>0.5807510701553734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6819363390196254</v>
+        <v>0.6805239200152082</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>45265</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36010</v>
+        <v>36513</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53511</v>
+        <v>54070</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5221444675031112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4153884708531514</v>
+        <v>0.4211923871060504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6172682737473126</v>
+        <v>0.6237135136614876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1633,19 +1633,19 @@
         <v>34946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25135</v>
+        <v>24855</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46761</v>
+        <v>46160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.222241333917629</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1598500378346099</v>
+        <v>0.1580710656884709</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.297384613225168</v>
+        <v>0.2935579414593013</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1654,19 +1654,19 @@
         <v>80210</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64787</v>
+        <v>65935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95449</v>
+        <v>95779</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3288230758355415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2655941949706219</v>
+        <v>0.270299081440503</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3912916926583018</v>
+        <v>0.3926480124819007</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>41425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33179</v>
+        <v>32620</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50680</v>
+        <v>50177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4778555324968888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3827317262526869</v>
+        <v>0.3762864863385124</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5846115291468483</v>
+        <v>0.5788076128939496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -1704,19 +1704,19 @@
         <v>122296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110481</v>
+        <v>111082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>132107</v>
+        <v>132387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.777758666082371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7026153867748317</v>
+        <v>0.706442058540699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8401499621653902</v>
+        <v>0.8419289343115293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -1725,19 +1725,19 @@
         <v>163722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148483</v>
+        <v>148153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179145</v>
+        <v>177997</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6711769241644585</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6087083073416982</v>
+        <v>0.6073519875180992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7344058050293781</v>
+        <v>0.729700918559497</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>63214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52836</v>
+        <v>52785</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72140</v>
+        <v>73007</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.555811758433585</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4645619447399111</v>
+        <v>0.4641164468177724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6342903156083638</v>
+        <v>0.641920028582639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1850,19 +1850,19 @@
         <v>47527</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36305</v>
+        <v>36562</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61211</v>
+        <v>61054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2433187646506997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1858691928713318</v>
+        <v>0.1871844559531424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3133793159518287</v>
+        <v>0.3125730338975423</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1871,19 +1871,19 @@
         <v>110741</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93345</v>
+        <v>93751</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126697</v>
+        <v>127543</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3583155269762011</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3020299456367547</v>
+        <v>0.3033425898376246</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4099432365597185</v>
+        <v>0.4126817604505564</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>50519</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41593</v>
+        <v>40726</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60897</v>
+        <v>60948</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.444188241566415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3657096843916362</v>
+        <v>0.3580799714173612</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5354380552600889</v>
+        <v>0.5358835531822276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -1921,19 +1921,19 @@
         <v>147800</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134116</v>
+        <v>134273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159022</v>
+        <v>158765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7566812353493003</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6866206840481712</v>
+        <v>0.6874269661024575</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.814130807128668</v>
+        <v>0.8128155440468572</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>196</v>
@@ -1942,19 +1942,19 @@
         <v>198319</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>182363</v>
+        <v>181517</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215715</v>
+        <v>215309</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6416844730237989</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5900567634402815</v>
+        <v>0.5873182395494433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6979700543632451</v>
+        <v>0.6966574101623754</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>142828</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125661</v>
+        <v>127993</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>158654</v>
+        <v>159070</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5132772143732685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4515868798434683</v>
+        <v>0.4599650986952921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5701527590126467</v>
+        <v>0.5716486580015677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -2067,19 +2067,19 @@
         <v>118927</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100662</v>
+        <v>100026</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138871</v>
+        <v>138005</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.260463567952507</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.220460633930817</v>
+        <v>0.2190682864916416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3041436003603707</v>
+        <v>0.3022452544066647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>262</v>
@@ -2088,19 +2088,19 @@
         <v>261755</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>239021</v>
+        <v>236448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>286392</v>
+        <v>287750</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3561947319392367</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3252594830953731</v>
+        <v>0.3217575899748638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3897212677421646</v>
+        <v>0.3915694934785121</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>135438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119612</v>
+        <v>119196</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>152605</v>
+        <v>150273</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4867227856267315</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4298472409873533</v>
+        <v>0.4283513419984323</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5484131201565317</v>
+        <v>0.540034901304708</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>336</v>
@@ -2138,19 +2138,19 @@
         <v>337671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317727</v>
+        <v>318593</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>355936</v>
+        <v>356572</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7395364320474931</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6958563996396293</v>
+        <v>0.6977547455933353</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7795393660691832</v>
+        <v>0.7809317135083583</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>470</v>
@@ -2159,19 +2159,19 @@
         <v>473109</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>448472</v>
+        <v>447114</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>495843</v>
+        <v>498416</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6438052680607633</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6102787322578351</v>
+        <v>0.6084305065214879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6747405169046269</v>
+        <v>0.6782424100251362</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>168143</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>151268</v>
+        <v>152643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183613</v>
+        <v>183770</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6155457872590668</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5537697666125263</v>
+        <v>0.5588021922856099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6721795831893939</v>
+        <v>0.6727537537447644</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>119</v>
@@ -2284,19 +2284,19 @@
         <v>128654</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110856</v>
+        <v>108350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150618</v>
+        <v>149810</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2369377190022799</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2041587447703938</v>
+        <v>0.1995432337137306</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.277388159074067</v>
+        <v>0.275898629099126</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>290</v>
@@ -2305,19 +2305,19 @@
         <v>296797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>267699</v>
+        <v>268886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>327418</v>
+        <v>324674</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3636558352744473</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3280025572005239</v>
+        <v>0.3294572477507772</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4011741050833666</v>
+        <v>0.3978123453808821</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>105018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89548</v>
+        <v>89391</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121893</v>
+        <v>120518</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3844542127409332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3278204168106062</v>
+        <v>0.3272462462552357</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4462302333874736</v>
+        <v>0.44119780771439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>396</v>
@@ -2355,19 +2355,19 @@
         <v>414334</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>392370</v>
+        <v>393178</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>432132</v>
+        <v>434638</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7630622809977201</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.722611840925933</v>
+        <v>0.724101370900874</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7958412552296062</v>
+        <v>0.8004567662862694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>504</v>
@@ -2376,19 +2376,19 @@
         <v>519352</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>488731</v>
+        <v>491475</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>548450</v>
+        <v>547263</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6363441647255527</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5988258949166335</v>
+        <v>0.6021876546191179</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6719974427994763</v>
+        <v>0.6705427522492228</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>741679</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.545615780097335</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>558</v>
@@ -2501,19 +2501,19 @@
         <v>578130</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2463755773799956</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1318</v>
@@ -2522,19 +2522,19 @@
         <v>1319809</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3561388928180357</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>617664</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>582569</v>
+        <v>580441</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>650521</v>
+        <v>650196</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4543842199026649</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4285669050275182</v>
+        <v>0.427000847589141</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4785552573563461</v>
+        <v>0.478316366868248</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1750</v>
@@ -2572,19 +2572,19 @@
         <v>1768411</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1726528</v>
+        <v>1725222</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1811152</v>
+        <v>1805813</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7536244226200044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.735775673088387</v>
+        <v>0.7352193626169249</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7718389910035673</v>
+        <v>0.7695637615078265</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2368</v>
@@ -2593,19 +2593,19 @@
         <v>2386074</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2329698</v>
+        <v>2330518</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2445346</v>
+        <v>2442316</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6438611071819642</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6286486494376349</v>
+        <v>0.6288697353972486</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6598552399960039</v>
+        <v>0.6590376672271135</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>76083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62750</v>
+        <v>62225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89011</v>
+        <v>90008</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4557252459850629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3758640854401283</v>
+        <v>0.3727164833123439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5331652027075532</v>
+        <v>0.5391320598330528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2962,19 +2962,19 @@
         <v>68813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55626</v>
+        <v>55492</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83544</v>
+        <v>83714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3659714963815896</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2958347391241948</v>
+        <v>0.2951227973376174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4443160728880839</v>
+        <v>0.4452191924310516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -2983,19 +2983,19 @@
         <v>144896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123686</v>
+        <v>126685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>164609</v>
+        <v>165182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4081834215560919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.348432111171371</v>
+        <v>0.3568805184844518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4637162388709363</v>
+        <v>0.4653306587165815</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>90866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77938</v>
+        <v>76941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104199</v>
+        <v>104724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5442747540149371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4668347972924468</v>
+        <v>0.4608679401669472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6241359145598715</v>
+        <v>0.6272835166876561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -3033,19 +3033,19 @@
         <v>119216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104485</v>
+        <v>104315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132403</v>
+        <v>132537</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6340285036184103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5556839271119159</v>
+        <v>0.5547808075689484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7041652608758051</v>
+        <v>0.704877202662383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>192</v>
@@ -3054,19 +3054,19 @@
         <v>210082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>190369</v>
+        <v>189796</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231292</v>
+        <v>228293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5918165784439081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5362837611290636</v>
+        <v>0.5346693412834183</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6515678888286287</v>
+        <v>0.6431194815155481</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>132346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112326</v>
+        <v>114062</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151064</v>
+        <v>151511</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4019317282034959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3411309560333309</v>
+        <v>0.3464053278973603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.458778444252302</v>
+        <v>0.4601366392866655</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -3179,19 +3179,19 @@
         <v>89844</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73179</v>
+        <v>72479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108153</v>
+        <v>109394</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2282706875277911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1859303347301753</v>
+        <v>0.1841514617976091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2747902077011877</v>
+        <v>0.2779413180980815</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>198</v>
@@ -3200,19 +3200,19 @@
         <v>222190</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198000</v>
+        <v>196753</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>250185</v>
+        <v>249270</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3073760630144881</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2739124123875964</v>
+        <v>0.2721865460826094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3461038215150627</v>
+        <v>0.3448382766627602</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>196928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178210</v>
+        <v>177763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>216948</v>
+        <v>215212</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5980682717965041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5412215557476978</v>
+        <v>0.5398633607133344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.658869043966669</v>
+        <v>0.6535946721026398</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -3250,19 +3250,19 @@
         <v>303741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>285432</v>
+        <v>284191</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320406</v>
+        <v>321106</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7717293124722089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7252097922988124</v>
+        <v>0.7220586819019185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8140696652698249</v>
+        <v>0.815848538202391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>472</v>
@@ -3271,19 +3271,19 @@
         <v>500670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>472675</v>
+        <v>473590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>524860</v>
+        <v>526107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6926239369855119</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6538961784849372</v>
+        <v>0.6551617233372399</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7260875876124034</v>
+        <v>0.7278134539173906</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>82244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69009</v>
+        <v>69282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97066</v>
+        <v>97620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4571676869483387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3835982234794665</v>
+        <v>0.3851177893671399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5395598233343546</v>
+        <v>0.5426401733781742</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -3396,19 +3396,19 @@
         <v>75561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60297</v>
+        <v>60597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91317</v>
+        <v>91084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2944680752404154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2349817343347666</v>
+        <v>0.2361499894732173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3558696500818229</v>
+        <v>0.3549626232133893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -3417,19 +3417,19 @@
         <v>157805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138710</v>
+        <v>138307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179614</v>
+        <v>179551</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3615226519018891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3177781630177821</v>
+        <v>0.3168537695499772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4114864942937128</v>
+        <v>0.4113425714283684</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>97654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82832</v>
+        <v>82278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110889</v>
+        <v>110616</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5428323130516612</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4604401766656455</v>
+        <v>0.4573598266218259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6164017765205335</v>
+        <v>0.6148822106328602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>167</v>
@@ -3467,19 +3467,19 @@
         <v>181042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165286</v>
+        <v>165519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196306</v>
+        <v>196006</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7055319247595847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6441303499181769</v>
+        <v>0.6450373767866107</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7650182656652333</v>
+        <v>0.7638500105267831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -3488,19 +3488,19 @@
         <v>278696</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>256887</v>
+        <v>256950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>297791</v>
+        <v>298194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6384773480981109</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5885135057062872</v>
+        <v>0.5886574285716317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6822218369822181</v>
+        <v>0.6831462304500229</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>102381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85531</v>
+        <v>87521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117611</v>
+        <v>118354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4482209130626128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3744520193419886</v>
+        <v>0.3831642591793101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5148975557122418</v>
+        <v>0.5181485783073523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -3613,19 +3613,19 @@
         <v>101877</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85844</v>
+        <v>85531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119131</v>
+        <v>119377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3630341041666694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3059005840499673</v>
+        <v>0.3047881872135912</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.42451937733645</v>
+        <v>0.4253970343141039</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -3634,19 +3634,19 @@
         <v>204258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>183744</v>
+        <v>183131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227809</v>
+        <v>227381</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4012590024708464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3609599483505554</v>
+        <v>0.3597557547039465</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.447525003256513</v>
+        <v>0.4466838807732538</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>126036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110806</v>
+        <v>110063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142886</v>
+        <v>140896</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5517790869373872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4851024442877581</v>
+        <v>0.4818514216926477</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6255479806580114</v>
+        <v>0.6168357408206899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>173</v>
@@ -3684,19 +3684,19 @@
         <v>178749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161495</v>
+        <v>161249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194782</v>
+        <v>195095</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6369658958333306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5754806226635507</v>
+        <v>0.5746029656858965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6940994159500328</v>
+        <v>0.6952118127864089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>290</v>
@@ -3705,19 +3705,19 @@
         <v>304785</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281234</v>
+        <v>281662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325299</v>
+        <v>325912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5987409975291536</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.552474996743487</v>
+        <v>0.5533161192267462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6390400516494446</v>
+        <v>0.6402442452960534</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>49954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38925</v>
+        <v>39487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62110</v>
+        <v>61756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.386452599277597</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3011349648705507</v>
+        <v>0.3054836866029774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4804948202858716</v>
+        <v>0.4777585362825048</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -3830,19 +3830,19 @@
         <v>47020</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35269</v>
+        <v>36586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58804</v>
+        <v>59813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2886761182828349</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2165317755883411</v>
+        <v>0.2246196031499531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3610273402017553</v>
+        <v>0.3672223019462114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -3851,19 +3851,19 @@
         <v>96973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80854</v>
+        <v>82429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113483</v>
+        <v>114461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3319386347183906</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2767642538150573</v>
+        <v>0.2821544824272348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3884522223435062</v>
+        <v>0.3918003690697008</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>79308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67152</v>
+        <v>67506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90337</v>
+        <v>89775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.613547400722403</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5195051797141284</v>
+        <v>0.5222414637174951</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6988650351294493</v>
+        <v>0.6945163133970225</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -3901,19 +3901,19 @@
         <v>115860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104076</v>
+        <v>103067</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127611</v>
+        <v>126294</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7113238817171651</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6389726597982448</v>
+        <v>0.6327776980537885</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7834682244116589</v>
+        <v>0.7753803968500469</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -3922,19 +3922,19 @@
         <v>195169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>178659</v>
+        <v>177681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>211288</v>
+        <v>209713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6680613652816094</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6115477776564937</v>
+        <v>0.6081996309302993</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7232357461849427</v>
+        <v>0.7178455175727653</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>74321</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61647</v>
+        <v>62786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86906</v>
+        <v>87860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4804915566164104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3985516649476267</v>
+        <v>0.4059173871856036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5618493193107833</v>
+        <v>0.56802140308889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -4047,19 +4047,19 @@
         <v>60108</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47977</v>
+        <v>47710</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75065</v>
+        <v>73258</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2674558984112119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2134781429772345</v>
+        <v>0.2122892953306412</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3340094768137938</v>
+        <v>0.3259709471643937</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -4068,19 +4068,19 @@
         <v>134429</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113604</v>
+        <v>115707</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152549</v>
+        <v>154529</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3543049409943564</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.299416369951</v>
+        <v>0.304958912318854</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4020620098051521</v>
+        <v>0.4072796535291869</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>80357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67772</v>
+        <v>66818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93031</v>
+        <v>91892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5195084433835897</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4381506806892168</v>
+        <v>0.4319785969111101</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6014483350523734</v>
+        <v>0.5940826128143964</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -4118,19 +4118,19 @@
         <v>164631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>149674</v>
+        <v>151481</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176762</v>
+        <v>177029</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7325441015887881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6659905231862062</v>
+        <v>0.6740290528356064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7865218570227654</v>
+        <v>0.7877107046693588</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>238</v>
@@ -4139,19 +4139,19 @@
         <v>244988</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>226868</v>
+        <v>224888</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265813</v>
+        <v>263710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6456950590056436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5979379901948478</v>
+        <v>0.5927203464708131</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.700583630049</v>
+        <v>0.695041087681146</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>160207</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>140154</v>
+        <v>142142</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180310</v>
+        <v>181816</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4191880924655182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3667186286607325</v>
+        <v>0.37191996258252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4717892297315969</v>
+        <v>0.4757279257684801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -4264,19 +4264,19 @@
         <v>150142</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>130282</v>
+        <v>129815</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175040</v>
+        <v>174952</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2962337931357891</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.257050973118433</v>
+        <v>0.2561284293693797</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3453586356230394</v>
+        <v>0.3451862875392747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>276</v>
@@ -4285,19 +4285,19 @@
         <v>310349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>281947</v>
+        <v>283055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>341023</v>
+        <v>342364</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.349091179474082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3171438468741993</v>
+        <v>0.318390666877341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3835944028898787</v>
+        <v>0.3851032698997148</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>221977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201874</v>
+        <v>200368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242030</v>
+        <v>240042</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5808119075344818</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5282107702684029</v>
+        <v>0.5242720742315199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6332813713392675</v>
+        <v>0.62808003741748</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>329</v>
@@ -4335,19 +4335,19 @@
         <v>356693</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>331795</v>
+        <v>331883</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>376553</v>
+        <v>377020</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7037662068642109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6546413643769606</v>
+        <v>0.6548137124607253</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7429490268815672</v>
+        <v>0.7438715706306204</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>542</v>
@@ -4356,19 +4356,19 @@
         <v>578670</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>547996</v>
+        <v>546655</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>607072</v>
+        <v>605964</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.650908820525918</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6164055971101213</v>
+        <v>0.6148967301002851</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6828561531258006</v>
+        <v>0.6816093331226589</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>194684</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>172834</v>
+        <v>173168</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>214503</v>
+        <v>217935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4739713214902851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4207755159063103</v>
+        <v>0.4215906315206708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5222225940041197</v>
+        <v>0.5305772714135446</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>142</v>
@@ -4481,19 +4481,19 @@
         <v>154854</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132584</v>
+        <v>133115</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>177351</v>
+        <v>177134</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2764047865862351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2366541144248708</v>
+        <v>0.2376030880421852</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3165613735173584</v>
+        <v>0.3161746154400614</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>313</v>
@@ -4502,19 +4502,19 @@
         <v>349537</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>320334</v>
+        <v>317038</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>380387</v>
+        <v>380834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3599795495006107</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.329903512379833</v>
+        <v>0.3265091242097549</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3917513983403836</v>
+        <v>0.3922108705016671</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>216066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>196247</v>
+        <v>192815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>237916</v>
+        <v>237582</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5260286785097148</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4777774059958804</v>
+        <v>0.4694227285864554</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5792244840936901</v>
+        <v>0.5784093684793291</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>376</v>
@@ -4552,19 +4552,19 @@
         <v>405388</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>382891</v>
+        <v>383108</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>427658</v>
+        <v>427127</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7235952134137649</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6834386264826415</v>
+        <v>0.6838253845599384</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7633458855751291</v>
+        <v>0.7623969119578148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>579</v>
@@ -4573,19 +4573,19 @@
         <v>621455</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>590605</v>
+        <v>590158</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>650658</v>
+        <v>653954</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6400204504993894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6082486016596166</v>
+        <v>0.607789129498333</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.670096487620167</v>
+        <v>0.6734908757902452</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>872220</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>825377</v>
+        <v>828209</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>916397</v>
+        <v>917448</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4402008230285644</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4165599947831586</v>
+        <v>0.4179888818832902</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4624968442727683</v>
+        <v>0.4630271117155343</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>689</v>
@@ -4698,19 +4698,19 @@
         <v>748218</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>702346</v>
+        <v>703200</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>798323</v>
+        <v>794106</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2907350259202509</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2729106663099228</v>
+        <v>0.2732423443920264</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3102045627229664</v>
+        <v>0.3085658548296076</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1476</v>
@@ -4719,19 +4719,19 @@
         <v>1620438</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1558675</v>
+        <v>1555332</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1689337</v>
+        <v>1683477</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3557529550475588</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3421935555380589</v>
+        <v>0.3414595838440916</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3708792537051283</v>
+        <v>0.3695926601226737</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1109193</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1065016</v>
+        <v>1063965</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1156036</v>
+        <v>1153204</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5597991769714356</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5375031557272318</v>
+        <v>0.5369728882844657</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5834400052168417</v>
+        <v>0.5820111181167098</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1699</v>
@@ -4769,19 +4769,19 @@
         <v>1825320</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1775215</v>
+        <v>1779432</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1871192</v>
+        <v>1870338</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7092649740797492</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6897954372770339</v>
+        <v>0.6914341451703924</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7270893336900771</v>
+        <v>0.7267576556079737</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2764</v>
@@ -4790,19 +4790,19 @@
         <v>2934514</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2865615</v>
+        <v>2871475</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2996277</v>
+        <v>2999620</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6442470449524412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6291207462948718</v>
+        <v>0.6304073398773264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6578064444619411</v>
+        <v>0.6585404161559085</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>59244</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47522</v>
+        <v>47433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72416</v>
+        <v>73052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3778289764893342</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3030690246440744</v>
+        <v>0.3025070825961459</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.461832372334564</v>
+        <v>0.4658922811628134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -5159,19 +5159,19 @@
         <v>54975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41839</v>
+        <v>42057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68595</v>
+        <v>68226</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3000985288724854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2283910669654147</v>
+        <v>0.2295832359261425</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3744472878216933</v>
+        <v>0.3724345546015351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -5180,19 +5180,19 @@
         <v>114219</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97130</v>
+        <v>96428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134108</v>
+        <v>133735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.335947296813114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2856858313373936</v>
+        <v>0.2836202901526868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3944473897459646</v>
+        <v>0.3933503583633719</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>97557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84385</v>
+        <v>83749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109279</v>
+        <v>109368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6221710235106658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5381676276654356</v>
+        <v>0.5341077188371858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6969309753559255</v>
+        <v>0.6974929174038541</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -5230,19 +5230,19 @@
         <v>128214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114594</v>
+        <v>114963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141350</v>
+        <v>141132</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6999014711275147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6255527121783064</v>
+        <v>0.6275654453984649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7716089330345852</v>
+        <v>0.7704167640738575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -5251,19 +5251,19 @@
         <v>225771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205882</v>
+        <v>206255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242860</v>
+        <v>243562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.664052703186886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6055526102540354</v>
+        <v>0.606649641636628</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7143141686626063</v>
+        <v>0.7163797098473133</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>148570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128761</v>
+        <v>130621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166173</v>
+        <v>166038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4536986793559017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3932049213487095</v>
+        <v>0.3988862276070511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5074526133967437</v>
+        <v>0.5070406849513234</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -5376,19 +5376,19 @@
         <v>92618</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76404</v>
+        <v>75569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113109</v>
+        <v>111847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2269130322559167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1871882054073878</v>
+        <v>0.185142203373388</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2771159053876742</v>
+        <v>0.2740234103255631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -5397,19 +5397,19 @@
         <v>241188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216274</v>
+        <v>217056</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267837</v>
+        <v>267876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3278665820270778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2939987166978118</v>
+        <v>0.2950608775808886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3640925523558685</v>
+        <v>0.364144616366521</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>178895</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161292</v>
+        <v>161427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>198704</v>
+        <v>196844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5463013206440983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4925473866032562</v>
+        <v>0.4929593150486766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6067950786512906</v>
+        <v>0.6011137723929488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>296</v>
@@ -5447,19 +5447,19 @@
         <v>315547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>295056</v>
+        <v>296318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>331761</v>
+        <v>332596</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7730869677440833</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7228840946123258</v>
+        <v>0.7259765896744369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8128117945926122</v>
+        <v>0.814857796626612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>464</v>
@@ -5468,19 +5468,19 @@
         <v>494442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>467793</v>
+        <v>467754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>519356</v>
+        <v>518574</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6721334179729223</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6359074476441318</v>
+        <v>0.6358553836334789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7060012833021883</v>
+        <v>0.7049391224191114</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>89941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76423</v>
+        <v>78358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103408</v>
+        <v>104557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4836077951482743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4109190963822861</v>
+        <v>0.4213222544574027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5560192502928724</v>
+        <v>0.5621961907183909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -5593,19 +5593,19 @@
         <v>79895</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64593</v>
+        <v>65559</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96705</v>
+        <v>95260</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3251026186996153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2628366065915678</v>
+        <v>0.2667684685473747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.393502933113575</v>
+        <v>0.3876252777039164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -5614,19 +5614,19 @@
         <v>169837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148642</v>
+        <v>151015</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188717</v>
+        <v>190332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3933824501657307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3442905819306365</v>
+        <v>0.3497865176036746</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4371139665670385</v>
+        <v>0.4408542795088637</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>96039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82572</v>
+        <v>81423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>109557</v>
+        <v>107622</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5163922048517257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4439807497071273</v>
+        <v>0.4378038092816091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5890809036177139</v>
+        <v>0.5786777455425971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -5664,19 +5664,19 @@
         <v>165859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149049</v>
+        <v>150494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181161</v>
+        <v>180195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6748973813003847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6064970668864247</v>
+        <v>0.6123747222960836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7371633934084321</v>
+        <v>0.7332315314526252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>269</v>
@@ -5685,19 +5685,19 @@
         <v>261897</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243017</v>
+        <v>241402</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>283092</v>
+        <v>280719</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6066175498342693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5628860334329615</v>
+        <v>0.5591457204911362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6557094180693634</v>
+        <v>0.6502134823963254</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>96554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81009</v>
+        <v>81266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112775</v>
+        <v>112418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.383171587268903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3214809218254684</v>
+        <v>0.3225018957488097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4475446957054934</v>
+        <v>0.4461295655056079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -5810,19 +5810,19 @@
         <v>81420</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65648</v>
+        <v>65769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98867</v>
+        <v>99300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2720082484554628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2193166079342498</v>
+        <v>0.2197209460462994</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3302969135546782</v>
+        <v>0.3317414821020994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -5831,19 +5831,19 @@
         <v>177974</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153178</v>
+        <v>153396</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>200118</v>
+        <v>198346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.322817015672783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2778423741839071</v>
+        <v>0.2782371370748705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3629844998181636</v>
+        <v>0.3597701604179927</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>155432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139211</v>
+        <v>139568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>170977</v>
+        <v>170720</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6168284127310969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5524553042945066</v>
+        <v>0.5538704344943918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6785190781745315</v>
+        <v>0.6774981042511903</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>204</v>
@@ -5881,19 +5881,19 @@
         <v>217908</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200461</v>
+        <v>200028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233680</v>
+        <v>233559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7279917515445372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6697030864453219</v>
+        <v>0.6682585178979009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7806833920657503</v>
+        <v>0.7802790539537007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>350</v>
@@ -5902,19 +5902,19 @@
         <v>373340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>351196</v>
+        <v>352968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>398136</v>
+        <v>397918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6771829843272169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6370155001818363</v>
+        <v>0.6402298395820069</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7221576258160929</v>
+        <v>0.7217628629251295</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>66718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56514</v>
+        <v>54852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78169</v>
+        <v>77428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5120720612806122</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4337484230422178</v>
+        <v>0.4209986535935659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5999600029441503</v>
+        <v>0.5942676590744868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -6027,19 +6027,19 @@
         <v>57197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46315</v>
+        <v>44690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70586</v>
+        <v>70100</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3526952847628173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2855955589651711</v>
+        <v>0.2755752936871126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4352583919147337</v>
+        <v>0.4322621742381929</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -6048,19 +6048,19 @@
         <v>123915</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106753</v>
+        <v>107800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141634</v>
+        <v>141792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4236973955401803</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3650156773998389</v>
+        <v>0.3685950911936917</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4842833462660177</v>
+        <v>0.484823054386427</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>63573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52122</v>
+        <v>52863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73777</v>
+        <v>75439</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4879279387193878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4000399970558499</v>
+        <v>0.4057323409255131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5662515769577823</v>
+        <v>0.5790013464064341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -6098,19 +6098,19 @@
         <v>104973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91584</v>
+        <v>92070</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115855</v>
+        <v>117480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6473047152371828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5647416080852664</v>
+        <v>0.5677378257618072</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.714404441034829</v>
+        <v>0.724424706312887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -6119,19 +6119,19 @@
         <v>168546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>150827</v>
+        <v>150669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>185708</v>
+        <v>184661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5763026044598196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5157166537339822</v>
+        <v>0.5151769456135733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6349843226001611</v>
+        <v>0.6314049088063085</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>73938</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61966</v>
+        <v>62063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85676</v>
+        <v>87210</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.475114409272799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3981830793075229</v>
+        <v>0.3988074187386137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5505456056675322</v>
+        <v>0.5603969024093732</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -6244,19 +6244,19 @@
         <v>44294</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31896</v>
+        <v>33912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57707</v>
+        <v>58340</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2296465795680179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1653686184932866</v>
+        <v>0.1758191385581668</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2991852237083951</v>
+        <v>0.3024686630837998</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -6265,19 +6265,19 @@
         <v>118232</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101369</v>
+        <v>101395</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136778</v>
+        <v>137195</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3392583578931396</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2908724403217384</v>
+        <v>0.2909466953913983</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3924762333485498</v>
+        <v>0.3936719685241204</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>81683</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69945</v>
+        <v>68411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93655</v>
+        <v>93558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.524885590727201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4494543943324681</v>
+        <v>0.4396030975906268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6018169206924772</v>
+        <v>0.6011925812613862</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -6315,19 +6315,19 @@
         <v>148587</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>135174</v>
+        <v>134541</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160985</v>
+        <v>158969</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7703534204319822</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.700814776291605</v>
+        <v>0.6975313369162004</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8346313815067135</v>
+        <v>0.8241808614418334</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>223</v>
@@ -6336,19 +6336,19 @@
         <v>230269</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>211723</v>
+        <v>211306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247132</v>
+        <v>247106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6607416421068604</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6075237666514502</v>
+        <v>0.6063280314758797</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7091275596782617</v>
+        <v>0.7090533046086017</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>153678</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135328</v>
+        <v>135557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>170891</v>
+        <v>171862</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5240959437643861</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4615187849201876</v>
+        <v>0.4622999300321801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5827988129002102</v>
+        <v>0.5861132196993981</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -6461,19 +6461,19 @@
         <v>152699</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131921</v>
+        <v>133387</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171597</v>
+        <v>173793</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3846131701641244</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3322779113456638</v>
+        <v>0.335971301777327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4322134842677806</v>
+        <v>0.4377444169960044</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>273</v>
@@ -6482,19 +6482,19 @@
         <v>306376</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>276977</v>
+        <v>280044</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332825</v>
+        <v>334059</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4438672292431438</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4012742406865489</v>
+        <v>0.4057185670192046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4821850572956961</v>
+        <v>0.483973360866954</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>139546</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122333</v>
+        <v>121362</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>157896</v>
+        <v>157667</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4759040562356139</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4172011870997898</v>
+        <v>0.4138867803006018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5384812150798124</v>
+        <v>0.5377000699678198</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>233</v>
@@ -6532,19 +6532,19 @@
         <v>244320</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>225422</v>
+        <v>223226</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>265098</v>
+        <v>263632</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6153868298358756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5677865157322193</v>
+        <v>0.5622555830039956</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6677220886543361</v>
+        <v>0.6640286982226731</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>354</v>
@@ -6553,19 +6553,19 @@
         <v>383867</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>357418</v>
+        <v>356184</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>413266</v>
+        <v>410199</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5561327707568562</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5178149427043042</v>
+        <v>0.516026639133046</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5987257593134512</v>
+        <v>0.5942814329807959</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>213582</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>193836</v>
+        <v>192083</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233609</v>
+        <v>232726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4800146999586444</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4356365575094159</v>
+        <v>0.4316965929836231</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5250234455440191</v>
+        <v>0.5230401673771859</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>150</v>
@@ -6678,19 +6678,19 @@
         <v>178924</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156089</v>
+        <v>155873</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202653</v>
+        <v>202751</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3140272437447058</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2739502193663179</v>
+        <v>0.2735719039236553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3556751225082059</v>
+        <v>0.3558467940630048</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -6699,19 +6699,19 @@
         <v>392506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>361473</v>
+        <v>361790</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>425016</v>
+        <v>428217</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3868118537451933</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3562295905397332</v>
+        <v>0.3565420992275599</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4188509901898395</v>
+        <v>0.4220055495299842</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>231367</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>211340</v>
+        <v>212223</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>251113</v>
+        <v>252866</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5199853000413556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4749765544559806</v>
+        <v>0.4769598326228139</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.564363442490584</v>
+        <v>0.5683034070163768</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>359</v>
@@ -6749,19 +6749,19 @@
         <v>390847</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>367118</v>
+        <v>367020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>413682</v>
+        <v>413898</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6859727562552942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.644324877491794</v>
+        <v>0.6441532059369952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7260497806336821</v>
+        <v>0.7264280960763447</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>577</v>
@@ -6770,19 +6770,19 @@
         <v>622214</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>589704</v>
+        <v>586503</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>653247</v>
+        <v>652930</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6131881462548067</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5811490098101605</v>
+        <v>0.5779944504700159</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6437704094602665</v>
+        <v>0.64345790077244</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>902225</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>863166</v>
+        <v>859441</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>946459</v>
+        <v>948433</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4635552000949618</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4434870773061729</v>
+        <v>0.4415732256726386</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4862822079331806</v>
+        <v>0.4872965874936976</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>639</v>
@@ -6895,19 +6895,19 @@
         <v>742021</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>695754</v>
+        <v>688176</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>789777</v>
+        <v>788587</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3018460071529139</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2830251059357509</v>
+        <v>0.2799426836237374</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3212726229862083</v>
+        <v>0.3207888197976912</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1542</v>
@@ -6916,19 +6916,19 @@
         <v>1644246</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1578912</v>
+        <v>1581230</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1713381</v>
+        <v>1712397</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3733026194381282</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3584695447151721</v>
+        <v>0.3589957819901721</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3889988145367836</v>
+        <v>0.3887753130960044</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1044091</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>999857</v>
+        <v>997883</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1083150</v>
+        <v>1086875</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5364447999050381</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5137177920668196</v>
+        <v>0.5127034125063021</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5565129226938275</v>
+        <v>0.5584267743273612</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1640</v>
@@ -6966,19 +6966,19 @@
         <v>1716255</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1668499</v>
+        <v>1669689</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1762522</v>
+        <v>1770100</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6981539928470861</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6787273770137917</v>
+        <v>0.679211180202309</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7169748940642494</v>
+        <v>0.7200573163762627</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2621</v>
@@ -6987,19 +6987,19 @@
         <v>2760347</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2691212</v>
+        <v>2692196</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2825681</v>
+        <v>2823363</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6266973805618719</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6110011854632164</v>
+        <v>0.6112246869039958</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6415304552848285</v>
+        <v>0.6410042180098281</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>25310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18044</v>
+        <v>18113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34234</v>
+        <v>33802</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2194265944352533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1564352387215651</v>
+        <v>0.1570299046710971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2967933095848759</v>
+        <v>0.2930460415009717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -7356,19 +7356,19 @@
         <v>31851</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24296</v>
+        <v>25254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39190</v>
+        <v>40654</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1950421352098041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1487790411381338</v>
+        <v>0.1546468597240791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2399806183399826</v>
+        <v>0.2489489566620645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -7377,19 +7377,19 @@
         <v>57162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45735</v>
+        <v>46381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68126</v>
+        <v>69043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2051360334014833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1641290647685272</v>
+        <v>0.1664472638933468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.244483553078783</v>
+        <v>0.2477749522717449</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>90037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81113</v>
+        <v>81545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97303</v>
+        <v>97234</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7805734055647466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.703206690415124</v>
+        <v>0.7069539584990284</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8435647612784348</v>
+        <v>0.8429700953289028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>219</v>
@@ -7427,19 +7427,19 @@
         <v>131453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124114</v>
+        <v>122650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139008</v>
+        <v>138050</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8049578647901958</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7600193816600174</v>
+        <v>0.7510510433379355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8512209588618662</v>
+        <v>0.8453531402759207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>313</v>
@@ -7448,19 +7448,19 @@
         <v>221490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>210526</v>
+        <v>209609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>232917</v>
+        <v>232271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7948639665985168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7555164469212168</v>
+        <v>0.7522250477282552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8358709352314729</v>
+        <v>0.8335527361066533</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>143060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120368</v>
+        <v>123159</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162746</v>
+        <v>165515</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5270997103250272</v>
+        <v>0.5270997103250271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4434896094376061</v>
+        <v>0.4537740177179654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5996321046377326</v>
+        <v>0.6098356639422043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -7573,19 +7573,19 @@
         <v>126989</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110043</v>
+        <v>111874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143366</v>
+        <v>141781</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3493446246569884</v>
+        <v>0.3493446246569885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3027263072380253</v>
+        <v>0.3077653774568055</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.394400220867717</v>
+        <v>0.3900396634174794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -7594,19 +7594,19 @@
         <v>270049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>243173</v>
+        <v>244581</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>294904</v>
+        <v>296004</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.425330413550094</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3830000574544982</v>
+        <v>0.3852176620772044</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4644765316320352</v>
+        <v>0.4662104491608491</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>128350</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108664</v>
+        <v>105895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151042</v>
+        <v>148251</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4729002896749727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4003678953622674</v>
+        <v>0.3901643360577957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.556510390562394</v>
+        <v>0.5462259822820348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -7644,19 +7644,19 @@
         <v>236516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>220139</v>
+        <v>221724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>253462</v>
+        <v>251631</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6506553753430117</v>
+        <v>0.6506553753430115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6055997791322828</v>
+        <v>0.6099603365825204</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6972736927619747</v>
+        <v>0.6922346225431946</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>369</v>
@@ -7665,19 +7665,19 @@
         <v>364867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>340012</v>
+        <v>338912</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>391743</v>
+        <v>390335</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5746695864499061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5355234683679644</v>
+        <v>0.533789550839151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6169999425455015</v>
+        <v>0.6147823379227958</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>90091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77290</v>
+        <v>77385</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101939</v>
+        <v>103389</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.544495066282268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4671291774197868</v>
+        <v>0.4677034441339384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6161000453547315</v>
+        <v>0.6248642164372987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -7790,19 +7790,19 @@
         <v>86104</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73926</v>
+        <v>75383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97501</v>
+        <v>98553</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.370923587416893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3184633302283755</v>
+        <v>0.3247401624348041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4200185455366538</v>
+        <v>0.4245505461714648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>303</v>
@@ -7811,19 +7811,19 @@
         <v>176195</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158855</v>
+        <v>159941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192792</v>
+        <v>192929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.443155529074886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3995422501899424</v>
+        <v>0.4022747475091461</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4848996971970695</v>
+        <v>0.4852428915849835</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>75367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63519</v>
+        <v>62069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88168</v>
+        <v>88073</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.455504933717732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3838999546452684</v>
+        <v>0.3751357835627014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5328708225802132</v>
+        <v>0.5322965558660614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -7861,19 +7861,19 @@
         <v>146030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134633</v>
+        <v>133581</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158208</v>
+        <v>156751</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6290764125831071</v>
+        <v>0.629076412583107</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5799814544633463</v>
+        <v>0.5754494538285351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6815366697716245</v>
+        <v>0.6752598375651958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>269</v>
@@ -7882,19 +7882,19 @@
         <v>221397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>204800</v>
+        <v>204663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238737</v>
+        <v>237651</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.556844470925114</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5151003028029305</v>
+        <v>0.5147571084150167</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6004577498100575</v>
+        <v>0.597725252490854</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>88914</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71692</v>
+        <v>71742</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103057</v>
+        <v>102997</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5609638486599304</v>
+        <v>0.5609638486599305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4523072061510062</v>
+        <v>0.4526219830966068</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.650191290428432</v>
+        <v>0.6498100302646483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -8007,19 +8007,19 @@
         <v>86066</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73066</v>
+        <v>74584</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97750</v>
+        <v>100443</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3602716400580877</v>
+        <v>0.3602716400580878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3058568235751539</v>
+        <v>0.3122084076045172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4091822255188169</v>
+        <v>0.4204545236982329</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>290</v>
@@ -8028,19 +8028,19 @@
         <v>174980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>154844</v>
+        <v>156057</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194975</v>
+        <v>195137</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4403188930587663</v>
+        <v>0.4403188930587664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3896495378281956</v>
+        <v>0.3927021897547627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4906343474065429</v>
+        <v>0.4910421013776273</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>69589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55446</v>
+        <v>55506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86811</v>
+        <v>86761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4390361513400696</v>
+        <v>0.4390361513400697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.349808709571568</v>
+        <v>0.3501899697353517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5476927938489938</v>
+        <v>0.5473780169033932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>206</v>
@@ -8078,19 +8078,19 @@
         <v>152825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141141</v>
+        <v>138448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165825</v>
+        <v>164307</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6397283599419121</v>
+        <v>0.6397283599419122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5908177744811831</v>
+        <v>0.579545476301767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6941431764248462</v>
+        <v>0.6877915923954828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>266</v>
@@ -8099,19 +8099,19 @@
         <v>222414</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202419</v>
+        <v>202257</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242550</v>
+        <v>241337</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5596811069412336</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5093656525934571</v>
+        <v>0.5089578986223724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6103504621718044</v>
+        <v>0.6072978102452372</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>33457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26365</v>
+        <v>26709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40739</v>
+        <v>41375</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4813419718253552</v>
+        <v>0.4813419718253553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3793175620679772</v>
+        <v>0.3842648863746589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.586117672309621</v>
+        <v>0.5952572924649567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -8224,19 +8224,19 @@
         <v>43271</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35784</v>
+        <v>36935</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49678</v>
+        <v>49936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4058516143810627</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3356276918184166</v>
+        <v>0.3464192660885761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4659360589889924</v>
+        <v>0.4683636734645754</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -8245,19 +8245,19 @@
         <v>76728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66424</v>
+        <v>66662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86003</v>
+        <v>87020</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4356433352813883</v>
+        <v>0.4356433352813882</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3771369733410921</v>
+        <v>0.3784901828587781</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4883059594686509</v>
+        <v>0.4940801814008457</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>36050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28768</v>
+        <v>28132</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43142</v>
+        <v>42798</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5186580281746448</v>
+        <v>0.5186580281746447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4138823276903784</v>
+        <v>0.4047427075350433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6206824379320224</v>
+        <v>0.6157351136253412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -8295,19 +8295,19 @@
         <v>63348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>56941</v>
+        <v>56683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70835</v>
+        <v>69684</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5941483856189372</v>
+        <v>0.5941483856189373</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5340639410110078</v>
+        <v>0.5316363265354247</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6643723081815837</v>
+        <v>0.6535807339114238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -8316,19 +8316,19 @@
         <v>99398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>90123</v>
+        <v>89106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109702</v>
+        <v>109464</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5643566647186117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.511694040531349</v>
+        <v>0.5059198185991542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6228630266589081</v>
+        <v>0.6215098171412219</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>79086</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68548</v>
+        <v>69217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88649</v>
+        <v>89211</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5874625154918907</v>
+        <v>0.5874625154918905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5091824590634045</v>
+        <v>0.5141563429553904</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6584993869154985</v>
+        <v>0.6626709428562834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -8441,19 +8441,19 @@
         <v>61298</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52634</v>
+        <v>52842</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69288</v>
+        <v>71313</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3475028111865941</v>
+        <v>0.3475028111865942</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2983843077928121</v>
+        <v>0.2995636405613608</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3927959206349894</v>
+        <v>0.4042792856158786</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>311</v>
@@ -8462,19 +8462,19 @@
         <v>140384</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126502</v>
+        <v>128169</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154200</v>
+        <v>155074</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4513682768290022</v>
+        <v>0.4513682768290023</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4067337423397669</v>
+        <v>0.412093448750048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4957910396293674</v>
+        <v>0.498599458265665</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>55537</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45974</v>
+        <v>45412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66075</v>
+        <v>65406</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4125374845081094</v>
+        <v>0.4125374845081095</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3415006130845016</v>
+        <v>0.3373290571437165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4908175409365954</v>
+        <v>0.4858436570446098</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -8512,19 +8512,19 @@
         <v>115098</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107108</v>
+        <v>105083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123762</v>
+        <v>123554</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6524971888134059</v>
+        <v>0.652497188813406</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6072040793650106</v>
+        <v>0.5957207143841213</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7016156922071879</v>
+        <v>0.700436359438639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>236</v>
@@ -8533,19 +8533,19 @@
         <v>170635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>156819</v>
+        <v>155945</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>184517</v>
+        <v>182850</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5486317231709976</v>
+        <v>0.5486317231709977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5042089603706326</v>
+        <v>0.5014005417343347</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.593266257660233</v>
+        <v>0.5879065512499519</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>190427</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>164224</v>
+        <v>169125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211399</v>
+        <v>214182</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5753748860362178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.496203905196592</v>
+        <v>0.5110121385190446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6387417559757586</v>
+        <v>0.6471532354462652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>248</v>
@@ -8658,19 +8658,19 @@
         <v>173594</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155930</v>
+        <v>154705</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>192458</v>
+        <v>191510</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4298715321541064</v>
+        <v>0.4298715321541066</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3861289463362759</v>
+        <v>0.3830968907812362</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4765847760774938</v>
+        <v>0.474236982431646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>450</v>
@@ -8679,19 +8679,19 @@
         <v>364021</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>336282</v>
+        <v>332858</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>394410</v>
+        <v>392031</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4954086055655069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4576580056028955</v>
+        <v>0.4529979387443235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5367661863113363</v>
+        <v>0.5335283603553312</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>140534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119562</v>
+        <v>116779</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166737</v>
+        <v>161836</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4246251139637822</v>
+        <v>0.4246251139637821</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3612582440242415</v>
+        <v>0.3528467645537342</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5037960948034076</v>
+        <v>0.4889878614809552</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>257</v>
@@ -8729,19 +8729,19 @@
         <v>230234</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>211370</v>
+        <v>212318</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>247898</v>
+        <v>249123</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5701284678458935</v>
+        <v>0.5701284678458937</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5234152239225062</v>
+        <v>0.5257630175683542</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6138710536637246</v>
+        <v>0.6169031092187638</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>339</v>
@@ -8750,19 +8750,19 @@
         <v>370768</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>340379</v>
+        <v>342758</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>398507</v>
+        <v>401931</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.504591394434493</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4632338136886635</v>
+        <v>0.4664716396446687</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5423419943971044</v>
+        <v>0.5470020612556766</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>224104</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>200639</v>
+        <v>203880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241402</v>
+        <v>242483</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6589475560590664</v>
+        <v>0.6589475560590665</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5899505300411866</v>
+        <v>0.5994821915381331</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7098089030268162</v>
+        <v>0.7129882426935233</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>310</v>
@@ -8875,19 +8875,19 @@
         <v>201590</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>181840</v>
+        <v>183099</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>221731</v>
+        <v>219774</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3911491573566168</v>
+        <v>0.3911491573566167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3528277797194763</v>
+        <v>0.3552704346383939</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4302278629915202</v>
+        <v>0.4264311479600006</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>605</v>
@@ -8896,19 +8896,19 @@
         <v>425695</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>397616</v>
+        <v>398827</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>452651</v>
+        <v>454259</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4976124382802287</v>
+        <v>0.4976124382802286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4647905622767979</v>
+        <v>0.4662064210183247</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5291227473289694</v>
+        <v>0.5310031832550312</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>115990</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98692</v>
+        <v>97611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139455</v>
+        <v>136214</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3410524439409335</v>
+        <v>0.3410524439409336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2901910969731837</v>
+        <v>0.2870117573064763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4100494699588131</v>
+        <v>0.4005178084618668</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>372</v>
@@ -8946,19 +8946,19 @@
         <v>313790</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>293649</v>
+        <v>295606</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>333540</v>
+        <v>332281</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6088508426433833</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5697721370084798</v>
+        <v>0.5735688520399994</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6471722202805237</v>
+        <v>0.6447295653616062</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>452</v>
@@ -8967,19 +8967,19 @@
         <v>429779</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>402823</v>
+        <v>401215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>457858</v>
+        <v>456647</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5023875617197713</v>
+        <v>0.5023875617197714</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4708772526710306</v>
+        <v>0.4689968167449688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5352094377232022</v>
+        <v>0.5337935789816755</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>874450</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>830169</v>
+        <v>828246</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>920335</v>
+        <v>917733</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5513887680970891</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.523467444680313</v>
+        <v>0.5222550828412503</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5803220499493489</v>
+        <v>0.5786813653468095</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1433</v>
@@ -9092,19 +9092,19 @@
         <v>810764</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>770248</v>
+        <v>773108</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>848010</v>
+        <v>850646</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3685193055784265</v>
+        <v>0.3685193055784266</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3501033437173701</v>
+        <v>0.3514033627066935</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3854488634138085</v>
+        <v>0.3866470633781927</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2568</v>
@@ -9113,19 +9113,19 @@
         <v>1685213</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1630171</v>
+        <v>1634382</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1741350</v>
+        <v>1749323</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4451216008317878</v>
+        <v>0.4451216008317879</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4305830870206366</v>
+        <v>0.4316951990191983</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4599490526034813</v>
+        <v>0.4620550453562696</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>711454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>665569</v>
+        <v>668171</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>755735</v>
+        <v>757658</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4486112319029107</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4196779500506511</v>
+        <v>0.4213186346531907</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4765325553196869</v>
+        <v>0.4777449171587497</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1869</v>
@@ -9163,19 +9163,19 @@
         <v>1389294</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1352048</v>
+        <v>1349412</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1429810</v>
+        <v>1426950</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6314806944215733</v>
+        <v>0.6314806944215734</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6145511365861914</v>
+        <v>0.6133529366218072</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6498966562826299</v>
+        <v>0.6485966372933065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2423</v>
@@ -9184,19 +9184,19 @@
         <v>2100749</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2044612</v>
+        <v>2036639</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2155791</v>
+        <v>2151580</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5548783991682121</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5400509473965187</v>
+        <v>0.5379449546437303</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5694169129793635</v>
+        <v>0.5683048009808017</v>
       </c>
     </row>
     <row r="30">
